--- a/R_C14_rates calculation/0_data_used/MD FCM DATA.xlsx
+++ b/R_C14_rates calculation/0_data_used/MD FCM DATA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/deniseong/Documents/GitHub/TAN1810_C14/R_C14_rates calculation/data_used/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/deniseong/Documents/GitHub/TAN1810_C14/R_C14_rates calculation/0_data_used/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A93447D-A406-C642-B78D-8124279AD0EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A864EA1D-8DC3-E84A-9B0C-2E152025BB28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31540" yWindow="-5140" windowWidth="30340" windowHeight="21140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33600" yWindow="-100" windowWidth="30340" windowHeight="21100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INITS PROFILES" sheetId="5" r:id="rId1"/>
@@ -48,7 +48,7 @@
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
-    This is an average of Nov 4 and Nov 6 values.</t>
+    This is an average of cycle 2 surface values.</t>
       </text>
     </comment>
   </commentList>
@@ -827,7 +827,7 @@
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <threadedComment ref="B214" dT="2022-10-20T06:17:03.58" personId="{75065BF3-5A12-6B4B-9DA5-2E5FE314CCDA}" id="{F3446D6E-0D39-DF4D-A783-6D5E3FB18794}">
-    <text>This is an average of Nov 4 and Nov 6 values.</text>
+    <text>This is an average of cycle 2 surface values.</text>
   </threadedComment>
 </ThreadedComments>
 </file>
@@ -836,7 +836,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AS209"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A201" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="D242" sqref="D242"/>
@@ -7565,8 +7565,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDC5DDA2-8349-0A49-9827-00F853CE3BBF}">
   <dimension ref="A1:AW215"/>
   <sheetViews>
-    <sheetView topLeftCell="A179" workbookViewId="0">
-      <selection activeCell="P231" sqref="P231"/>
+    <sheetView tabSelected="1" topLeftCell="A171" workbookViewId="0">
+      <selection activeCell="G221" sqref="G221"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
